--- a/excel_files/safeguarding crisis.xlsx
+++ b/excel_files/safeguarding crisis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fagio\Documents\GitHub\parenttext-crisis\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772B0BF1-E1AA-4685-92A5-D6A903141DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14C42D2-0B7F-4A09-A3CE-45B3CFA62FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generic" sheetId="1" r:id="rId1"/>
@@ -2360,18 +2360,12 @@
     <t>PLAY</t>
   </si>
   <si>
-    <t>JOUEZ</t>
-  </si>
-  <si>
     <t>Stop</t>
   </si>
   <si>
     <t>Play</t>
   </si>
   <si>
-    <t>COMMENCEZ</t>
-  </si>
-  <si>
     <t>tremblement terre</t>
   </si>
   <si>
@@ -2399,19 +2393,25 @@
     <t>plaay</t>
   </si>
   <si>
-    <t>juez</t>
-  </si>
-  <si>
-    <t>joez</t>
-  </si>
-  <si>
-    <t>jouz</t>
-  </si>
-  <si>
-    <t>juoz</t>
-  </si>
-  <si>
-    <t>jouze</t>
+    <t>COMMENCER</t>
+  </si>
+  <si>
+    <t>JOUER</t>
+  </si>
+  <si>
+    <t>juer</t>
+  </si>
+  <si>
+    <t>joer</t>
+  </si>
+  <si>
+    <t>jour</t>
+  </si>
+  <si>
+    <t>juor</t>
+  </si>
+  <si>
+    <t>joure</t>
   </si>
 </sst>
 </file>
@@ -2951,6 +2951,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2996,15 +3016,11 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3012,11 +3028,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3036,25 +3050,11 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3295,24 +3295,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="58"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
@@ -3328,25 +3328,25 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="47" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -3364,25 +3364,25 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="50" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="52"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -3397,24 +3397,24 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
@@ -5651,12 +5651,12 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A4:P4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G2:P2"/>
     <mergeCell ref="G3:P3"/>
-    <mergeCell ref="A4:P4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5668,8 +5668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AA999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -5687,19 +5687,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="59" t="s">
-        <v>663</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="61"/>
+      <c r="A1" s="67" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -5721,20 +5721,20 @@
       <c r="A2" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="49" t="s">
         <v>658</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="55" t="s">
         <v>659</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -5756,20 +5756,20 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="50" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -5788,19 +5788,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="80" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="82"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -5822,22 +5822,22 @@
       <c r="A5" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="45" t="s">
         <v>660</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="43" t="s">
+        <v>668</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>669</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>670</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="F5" s="43" t="s">
         <v>671</v>
       </c>
-      <c r="E5" s="80" t="s">
-        <v>672</v>
-      </c>
-      <c r="F5" s="80" t="s">
-        <v>673</v>
-      </c>
-      <c r="G5" s="80"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -5863,22 +5863,22 @@
       <c r="A6" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="B6" s="81" t="s">
-        <v>661</v>
-      </c>
-      <c r="C6" s="80" t="s">
+      <c r="B6" s="44" t="s">
+        <v>673</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>674</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="43" t="s">
         <v>675</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="43" t="s">
         <v>676</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="43" t="s">
         <v>677</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="43" t="s">
         <v>678</v>
       </c>
       <c r="H6" s="6"/>
@@ -7856,20 +7856,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -7889,21 +7889,21 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -7925,21 +7925,21 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="50" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -9979,22 +9979,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="76" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -10013,23 +10013,23 @@
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1">
       <c r="A2" s="36"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="73" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="72" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="78" t="s">
         <v>335</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -10050,23 +10050,23 @@
       <c r="A3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -10084,22 +10084,22 @@
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="72" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
@@ -12536,21 +12536,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="67" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="69"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -12572,22 +12572,22 @@
       <c r="A2" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="49" t="s">
         <v>505</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="55" t="s">
         <v>506</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -12609,22 +12609,22 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="50" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -12643,21 +12643,21 @@
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="80" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -12738,8 +12738,8 @@
       <c r="G6" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="H6" s="79" t="s">
-        <v>667</v>
+      <c r="H6" s="42" t="s">
+        <v>665</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -12814,11 +12814,11 @@
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="78" t="s">
-        <v>665</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>666</v>
+      <c r="B8" s="41" t="s">
+        <v>663</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>664</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>524</v>
@@ -14423,7 +14423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -14442,19 +14442,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="67" t="s">
         <v>613</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -14476,20 +14476,20 @@
       <c r="A2" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="49" t="s">
         <v>615</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="55" t="s">
         <v>616</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -14511,20 +14511,20 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="50" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -14543,19 +14543,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="80" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="82"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -16644,19 +16644,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="67" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -16678,20 +16678,20 @@
       <c r="A2" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="49" t="s">
         <v>628</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="55" t="s">
         <v>629</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -16713,20 +16713,20 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="50" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -16745,19 +16745,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="80" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="82"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -18823,7 +18823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -18842,19 +18842,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="67" t="s">
         <v>641</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -18876,20 +18876,20 @@
       <c r="A2" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="49" t="s">
         <v>642</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="55" t="s">
         <v>643</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -18911,20 +18911,20 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="50" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -18943,19 +18943,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="80" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="82"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -21018,7 +21018,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -21036,19 +21036,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="67" t="s">
         <v>653</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -21070,20 +21070,20 @@
       <c r="A2" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="49" t="s">
         <v>651</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="55" t="s">
         <v>652</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -21105,20 +21105,20 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="50" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -21137,19 +21137,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="80" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="82"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -21175,7 +21175,7 @@
         <v>653</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -21207,7 +21207,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>653</v>
@@ -23220,19 +23220,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="59" t="s">
-        <v>662</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="61"/>
+      <c r="A1" s="67" t="s">
+        <v>661</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -23254,20 +23254,20 @@
       <c r="A2" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="49" t="s">
         <v>654</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="55" t="s">
         <v>655</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -23289,20 +23289,20 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="50" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -23321,19 +23321,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="80" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="82"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -23388,15 +23388,15 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="81" t="s">
-        <v>669</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>668</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="44" t="s">
+        <v>667</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>

--- a/excel_files/safeguarding crisis.xlsx
+++ b/excel_files/safeguarding crisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edmun\Code\parenttext-crisis-palestine\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BF45B8-E29A-4EA4-AFF0-2C289B772887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACF5C6F-5FF0-4A77-A83B-A1107056BE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generic" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">mental_health!$A$1:$K$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">natural_disasters!$A$1:$M$20</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="315">
   <si>
     <t>Generic</t>
   </si>
@@ -1486,7 +1499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1704,56 +1717,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1768,7 +1736,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1797,15 +1764,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1899,6 +1857,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2121,7 +2084,7 @@
   <dimension ref="A1:AC999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2139,24 +2102,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="37"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="33"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
@@ -2172,25 +2135,25 @@
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="44" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="46"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="42"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -2208,25 +2171,25 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="47" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -2241,24 +2204,24 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="34"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
@@ -2273,40 +2236,40 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -2321,24 +2284,40 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -2354,34 +2333,34 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -2396,24 +2375,34 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -2429,32 +2418,32 @@
       <c r="AC8" s="4"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -2469,24 +2458,32 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="B10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -2502,40 +2499,40 @@
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -2550,20 +2547,34 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="B12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="6"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2583,32 +2594,32 @@
       <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="16" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -2623,20 +2634,28 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+      <c r="B14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="6"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2656,38 +2675,38 @@
       <c r="AC14" s="4"/>
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2702,20 +2721,34 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="B16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="6"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -2735,34 +2768,34 @@
       <c r="AC16" s="4"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2777,20 +2810,30 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
+      <c r="B18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="6"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -2810,36 +2853,36 @@
       <c r="AC18" s="4"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>911</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="16" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
@@ -2854,20 +2897,32 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="B20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="14">
+        <v>911</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
       <c r="M20" s="6"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -2887,38 +2942,38 @@
       <c r="AC20" s="4"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="16" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
@@ -2933,20 +2988,34 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+      <c r="B22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
       <c r="M22" s="6"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2966,34 +3035,34 @@
       <c r="AC22" s="4"/>
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="16" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -3008,20 +3077,30 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="B24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="6"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -3041,38 +3120,38 @@
       <c r="AC24" s="4"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="16" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -3087,20 +3166,34 @@
       <c r="AB25" s="4"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
+      <c r="B26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="6"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -3120,38 +3213,38 @@
       <c r="AC26" s="4"/>
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="16" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
@@ -3166,20 +3259,34 @@
       <c r="AB27" s="4"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
+      <c r="B28" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
       <c r="M28" s="6"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -3199,36 +3306,36 @@
       <c r="AC28" s="4"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="16" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
@@ -3243,20 +3350,32 @@
       <c r="AB29" s="4"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="B30" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
       <c r="M30" s="6"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -4256,6 +4375,9 @@
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -4263,8 +4385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AA999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4282,19 +4404,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -4316,20 +4438,20 @@
       <c r="A2" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="44" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -4351,20 +4473,20 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -4382,20 +4504,20 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="66" t="s">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -4413,26 +4535,26 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -4454,18 +4576,18 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -4809,7 +4931,7 @@
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
@@ -6415,6 +6537,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6422,8 +6547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC999"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6441,20 +6566,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -6474,21 +6599,21 @@
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="44" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -6510,21 +6635,21 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="57"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="53"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -6543,39 +6668,39 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -6588,19 +6713,19 @@
         <v>89</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="18"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -6619,20 +6744,32 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="6"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -6652,7 +6789,7 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -6665,19 +6802,19 @@
         <v>95</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -6696,20 +6833,32 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="6"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -6729,7 +6878,7 @@
       <c r="AC8" s="4"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -6742,19 +6891,19 @@
         <v>101</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="18"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -6773,20 +6922,32 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="28"/>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>104</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="6"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -6806,7 +6967,7 @@
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -6819,19 +6980,19 @@
         <v>107</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -6850,20 +7011,32 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="6"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -6883,7 +7056,7 @@
       <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -6896,19 +7069,19 @@
         <v>113</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="18"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -6927,20 +7100,32 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="28"/>
+      <c r="B14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="6"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -6960,7 +7145,7 @@
       <c r="AC14" s="4"/>
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -6971,19 +7156,19 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="18"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -7002,20 +7187,30 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="28"/>
+      <c r="B16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>120</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="6"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -7035,7 +7230,7 @@
       <c r="AC16" s="4"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -7046,19 +7241,19 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="18"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="17"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -7077,20 +7272,30 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="28"/>
+      <c r="B18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>125</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="6"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -7110,7 +7315,7 @@
       <c r="AC18" s="4"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -7121,17 +7326,17 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="17"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -7150,20 +7355,28 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="28"/>
+      <c r="B20" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="17"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
       <c r="M20" s="6"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -7183,7 +7396,7 @@
       <c r="AC20" s="4"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -7196,19 +7409,19 @@
         <v>132</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="18"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="17"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -7227,20 +7440,32 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="28"/>
+      <c r="B22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>135</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
       <c r="M22" s="6"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -7260,7 +7485,7 @@
       <c r="AC22" s="4"/>
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -7275,17 +7500,17 @@
       <c r="E23" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="18"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="17"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -7304,20 +7529,32 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="28"/>
+      <c r="B24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="27"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="6"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -7337,7 +7574,7 @@
       <c r="AC24" s="4"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -7348,13 +7585,13 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="19"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="18"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -7373,20 +7610,24 @@
       <c r="AB25" s="4"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="28"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="6"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -8389,6 +8630,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -8397,7 +8641,7 @@
   <dimension ref="A1:AC999"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8415,22 +8659,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -8448,24 +8692,24 @@
       <c r="AC1" s="4"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="59" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="64" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -8483,26 +8727,26 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="65" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -8520,96 +8764,108 @@
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-    </row>
-    <row r="5" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+    </row>
+    <row r="5" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>153</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="6"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -8628,66 +8884,78 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>159</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="6"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -8706,64 +8974,74 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="28"/>
+      <c r="B10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="6"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -8782,62 +9060,70 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="16" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="6"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -8856,60 +9142,66 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="16" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="28"/>
+      <c r="B14" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="27"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="6"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -8928,64 +9220,74 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="16" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="28"/>
+      <c r="B16" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="27"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="6"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -9004,66 +9306,78 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="16" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>182</v>
+      </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="6"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -9082,66 +9396,78 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="16" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
       <c r="M20" s="6"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -9160,64 +9486,74 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="16" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="28"/>
+      <c r="B22" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
       <c r="M22" s="6"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -9236,62 +9572,70 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="16" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="28"/>
+      <c r="B24" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="27"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="6"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -9310,58 +9654,62 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="16" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="15" t="s">
+        <v>198</v>
+      </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="28"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="6"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -9380,58 +9728,62 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="16" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
+      <c r="B28" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="28"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
       <c r="M28" s="6"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -9450,62 +9802,68 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="16" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
+      <c r="B30" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="15" t="s">
+        <v>203</v>
+      </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="28"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
       <c r="M30" s="6"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -9524,66 +9882,78 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
     </row>
-    <row r="31" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="16" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="28"/>
+      <c r="B32" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>210</v>
+      </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
       <c r="M32" s="6"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -9602,60 +9972,66 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
     </row>
-    <row r="33" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="16" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="28"/>
+      <c r="B34" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H34" s="27"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
       <c r="M34" s="6"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -9674,60 +10050,66 @@
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
     </row>
-    <row r="35" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="16" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="28"/>
+      <c r="B36" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="H36" s="27"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
       <c r="M36" s="6"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -9746,7 +10128,7 @@
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
     </row>
-    <row r="37" spans="1:29" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:29" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10720,6 +11102,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -10728,7 +11113,7 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10746,21 +11131,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -10782,22 +11167,22 @@
       <c r="A2" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="44" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -10819,22 +11204,22 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -10853,21 +11238,21 @@
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -10886,7 +11271,7 @@
       <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -10910,8 +11295,8 @@
         <v>226</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="6"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -10931,20 +11316,32 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>222</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="6"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -10964,7 +11361,7 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -10990,8 +11387,8 @@
         <v>233</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="6"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -11011,20 +11408,34 @@
       <c r="AC7" s="4"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>233</v>
+      </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="6"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -11044,7 +11455,7 @@
       <c r="AC8" s="4"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -11075,8 +11486,8 @@
         <v>242</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -11095,20 +11506,38 @@
       <c r="AC9" s="4"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
+      <c r="B10" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="6"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -11128,7 +11557,7 @@
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -11148,8 +11577,8 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="6"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -11169,20 +11598,28 @@
       <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>244</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="28"/>
+      <c r="F12" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="27"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="6"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -11202,7 +11639,7 @@
       <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -11230,8 +11667,8 @@
         <v>254</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="6"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -11251,20 +11688,36 @@
       <c r="AC13" s="4"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="6"/>
+      <c r="B14" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="6"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -11284,7 +11737,7 @@
       <c r="AC14" s="4"/>
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -11304,8 +11757,8 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="6"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -11325,20 +11778,28 @@
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="28"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="6"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -11358,7 +11819,7 @@
       <c r="AC16" s="4"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -11378,8 +11839,8 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="6"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -11399,20 +11860,28 @@
       <c r="AC17" s="4"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="28"/>
+      <c r="F18" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="27"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="6"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -11432,7 +11901,7 @@
       <c r="AC18" s="4"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -11450,8 +11919,8 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="6"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -11471,20 +11940,26 @@
       <c r="AC19" s="4"/>
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>264</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="28"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
       <c r="M20" s="6"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -12494,6 +12969,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -12520,19 +12998,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -12554,20 +13032,20 @@
       <c r="A2" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="44" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -12589,20 +13067,20 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -12621,19 +13099,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -13078,7 +13556,7 @@
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
@@ -14684,6 +15162,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -14710,19 +15191,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -14744,20 +15225,20 @@
       <c r="A2" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="44" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -14779,20 +15260,20 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -14811,19 +15292,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -15266,7 +15747,7 @@
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
@@ -16872,6 +17353,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -16880,7 +17364,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F7"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16898,19 +17382,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -16932,20 +17416,20 @@
       <c r="A2" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="44" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -16967,20 +17451,20 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -16999,19 +17483,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -17452,7 +17936,7 @@
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
@@ -19058,6 +19542,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -19065,8 +19552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19084,19 +19571,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -19118,20 +19605,20 @@
       <c r="A2" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="44" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -19153,20 +19640,20 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -19185,19 +19672,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="62" t="s">
         <v>221</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -19216,13 +19703,13 @@
       <c r="AA4" s="4"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -19249,13 +19736,13 @@
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="69" t="s">
         <v>314</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -19632,7 +20119,7 @@
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
@@ -21238,6 +21725,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -21246,7 +21736,7 @@
   <dimension ref="A1:AA999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21264,19 +21754,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -21298,20 +21788,20 @@
       <c r="A2" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="44" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -21333,20 +21823,20 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -21365,19 +21855,19 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -21395,7 +21885,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>147</v>
       </c>
@@ -21428,17 +21918,17 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -21783,7 +22273,7 @@
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
@@ -23389,5 +23879,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>